--- a/excel.xlsx
+++ b/excel.xlsx
@@ -390,13 +390,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
@@ -722,6 +722,93 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>kh</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>y@1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>hjkj</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>kh</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>y@1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>hjkj</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
